--- a/RAW/Exposure_Raw.xlsx
+++ b/RAW/Exposure_Raw.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="67">
   <si>
     <t>STUDYID</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>S48</t>
+  </si>
+  <si>
+    <t>Period-2</t>
+  </si>
+  <si>
+    <t>11/15/2018</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,6 +1985,1398 @@
         <v>17</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.37777777777777799</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.37916666666666698</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.38055555555555598</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.38472222222222202</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.38611111111111102</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.390277777777778</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.391666666666667</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.39305555555555499</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.39444444444444399</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.39722222222222198</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.39861111111111103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.40138888888888902</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.40416666666666701</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.405555555555555</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.406944444444444</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.40833333333333299</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.41111111111111098</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.41388888888888897</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.41527777777777802</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" t="s">
+        <v>66</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.41805555555555501</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.41944444444444401</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.420833333333333</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.42638888888888898</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.42777777777777798</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.42916666666666597</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.43055555555555503</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.43194444444444402</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.43472222222222201</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0.43611111111111101</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0.43888888888888899</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D97" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0.44027777777777699</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
